--- a/src/main/resources/static/excel/user_data.xlsx
+++ b/src/main/resources/static/excel/user_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -38,43 +38,46 @@
     <t>USR002</t>
   </si>
   <si>
-    <t>wai yan mm</t>
-  </si>
-  <si>
-    <t>waiyan0922@gmail.com</t>
-  </si>
-  <si>
-    <t>USR031</t>
+    <t>kyaw htet</t>
+  </si>
+  <si>
+    <t>nto4777@gmail.com</t>
+  </si>
+  <si>
+    <t>USR003</t>
+  </si>
+  <si>
+    <t>john doe</t>
+  </si>
+  <si>
+    <t>john@gmail.com</t>
+  </si>
+  <si>
+    <t>USR004</t>
   </si>
   <si>
     <t>john william</t>
   </si>
   <si>
-    <t>john@gmail.com</t>
-  </si>
-  <si>
-    <t>USR052</t>
-  </si>
-  <si>
-    <t>emma helo</t>
+    <t>william@gmail.com</t>
+  </si>
+  <si>
+    <t>USR005</t>
+  </si>
+  <si>
+    <t>emma</t>
   </si>
   <si>
     <t>emma@gmail.com</t>
   </si>
   <si>
-    <t>USR131</t>
-  </si>
-  <si>
-    <t>waiyan1@gmail.com</t>
-  </si>
-  <si>
-    <t>USR172</t>
-  </si>
-  <si>
-    <t>waiyanmyintmyat</t>
-  </si>
-  <si>
-    <t>waiyan.f3lix@gmail.com</t>
+    <t>USR006</t>
+  </si>
+  <si>
+    <t>thomas hardy</t>
+  </si>
+  <si>
+    <t>hardy@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -131,10 +134,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="4.3828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="3.03125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="8.31640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.0703125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="23.0625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.38671875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="19.77734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -181,7 +184,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>31.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -195,7 +198,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>52.0</v>
+        <v>4.0</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -209,30 +212,30 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131.0</v>
+        <v>5.0</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>172.0</v>
+        <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
